--- a/My_Budget (1).xlsx
+++ b/My_Budget (1).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9435"/>
   </bookViews>
   <sheets>
     <sheet name="EXPENSE" sheetId="1" r:id="rId1"/>
@@ -1502,8 +1502,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2912,8 +2912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView zoomScale="92" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3014,7 +3014,7 @@
       </c>
       <c r="K3" s="43">
         <f>SUM(N3:P9)</f>
-        <v>25000</v>
+        <v>25100</v>
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="27">
@@ -3271,7 +3271,7 @@
         <v>400</v>
       </c>
       <c r="P9" s="9">
-        <v>890</v>
+        <v>990</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="P19" s="10">
         <f>SUM(P3:P18)</f>
-        <v>14895</v>
+        <v>14995</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -3559,7 +3559,7 @@
       <c r="O20" s="10"/>
       <c r="P20" s="10">
         <f>N19+P19+O19</f>
-        <v>53800</v>
+        <v>53900</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -3652,8 +3652,7 @@
         <v>52</v>
       </c>
       <c r="B28" s="6">
-        <f>6800+890</f>
-        <v>7690</v>
+        <v>7750</v>
       </c>
       <c r="C28" t="s">
         <v>70</v>
@@ -3671,17 +3670,17 @@
       </c>
       <c r="C29" s="9">
         <f>B30-(B20+B19)</f>
-        <v>25060.118811881184</v>
+        <v>25120.118811881184</v>
       </c>
       <c r="D29" s="9">
         <f>K3-C29</f>
-        <v>-60.118811881184229</v>
+        <v>-20.118811881184229</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B30" s="9">
         <f>B19+B20+B21+B25+B28+B22+(B23+B24+B26+B29+B27)/1515</f>
-        <v>91310.118811881184</v>
+        <v>91370.118811881184</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>

--- a/My_Budget (1).xlsx
+++ b/My_Budget (1).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="EXPENSE" sheetId="1" r:id="rId1"/>
@@ -681,7 +681,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="74">
   <si>
     <t>April</t>
   </si>
@@ -842,9 +842,6 @@
     <t>Payoneer</t>
   </si>
   <si>
-    <t>Cash USD</t>
-  </si>
-  <si>
     <t>Salary Card</t>
   </si>
   <si>
@@ -900,6 +897,12 @@
   </si>
   <si>
     <t>Mark Gift</t>
+  </si>
+  <si>
+    <t>CASH LBP</t>
+  </si>
+  <si>
+    <t>CASH USD</t>
   </si>
 </sst>
 </file>
@@ -1061,7 +1064,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1121,13 +1124,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1197,12 +1243,6 @@
     <xf numFmtId="9" fontId="1" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1216,6 +1256,60 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1502,8 +1596,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1546,18 +1640,18 @@
       </c>
       <c r="K1" s="32"/>
       <c r="L1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" s="16" t="s">
+      <c r="N1" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="O1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="43" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1601,13 +1695,13 @@
       <c r="M2" s="22">
         <v>1500</v>
       </c>
-      <c r="N2" s="22">
+      <c r="N2" s="49">
         <v>2400</v>
       </c>
-      <c r="O2" s="22">
-        <v>1500</v>
-      </c>
-      <c r="P2" s="22">
+      <c r="O2" s="57">
+        <v>1500</v>
+      </c>
+      <c r="P2" s="44">
         <v>1500</v>
       </c>
     </row>
@@ -1649,13 +1743,13 @@
       <c r="M3" s="18">
         <v>22</v>
       </c>
-      <c r="N3" s="18">
+      <c r="N3" s="50">
         <v>44</v>
       </c>
-      <c r="O3" s="18">
+      <c r="O3" s="58">
         <v>22</v>
       </c>
-      <c r="P3" s="18">
+      <c r="P3" s="45">
         <v>22</v>
       </c>
     </row>
@@ -1698,19 +1792,19 @@
       <c r="M4" s="18">
         <v>25</v>
       </c>
-      <c r="N4" s="18">
+      <c r="N4" s="50">
         <v>55</v>
       </c>
-      <c r="O4" s="18">
+      <c r="O4" s="58">
         <v>50</v>
       </c>
-      <c r="P4" s="18">
+      <c r="P4" s="45">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -1730,13 +1824,13 @@
       <c r="M5" s="18">
         <v>66</v>
       </c>
-      <c r="N5" s="18">
+      <c r="N5" s="50">
         <v>66</v>
       </c>
-      <c r="O5" s="18">
+      <c r="O5" s="58">
         <v>66</v>
       </c>
-      <c r="P5" s="18">
+      <c r="P5" s="45">
         <v>66</v>
       </c>
     </row>
@@ -1780,13 +1874,13 @@
       <c r="M6" s="18">
         <v>300</v>
       </c>
-      <c r="N6" s="18">
+      <c r="N6" s="50">
         <v>310</v>
       </c>
-      <c r="O6" s="18">
-        <v>250</v>
-      </c>
-      <c r="P6" s="18">
+      <c r="O6" s="58">
+        <v>320</v>
+      </c>
+      <c r="P6" s="45">
         <v>250</v>
       </c>
     </row>
@@ -1830,13 +1924,13 @@
       <c r="M7" s="18">
         <v>40</v>
       </c>
-      <c r="N7" s="18">
+      <c r="N7" s="50">
         <v>40</v>
       </c>
-      <c r="O7" s="18">
+      <c r="O7" s="58">
         <v>40</v>
       </c>
-      <c r="P7" s="18">
+      <c r="P7" s="45">
         <v>40</v>
       </c>
     </row>
@@ -1878,13 +1972,13 @@
       <c r="M8" s="18">
         <v>66</v>
       </c>
-      <c r="N8" s="18">
+      <c r="N8" s="50">
         <v>60</v>
       </c>
-      <c r="O8" s="18">
+      <c r="O8" s="58">
         <v>60</v>
       </c>
-      <c r="P8" s="18">
+      <c r="P8" s="45">
         <v>60</v>
       </c>
     </row>
@@ -1927,19 +2021,19 @@
       <c r="M9" s="18">
         <v>10</v>
       </c>
-      <c r="N9" s="18">
+      <c r="N9" s="50">
         <v>10</v>
       </c>
-      <c r="O9" s="18">
+      <c r="O9" s="58">
         <v>10</v>
       </c>
-      <c r="P9" s="18">
+      <c r="P9" s="45">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="18">
         <v>0</v>
@@ -1976,19 +2070,19 @@
       <c r="M10" s="18">
         <v>0</v>
       </c>
-      <c r="N10" s="18">
-        <v>0</v>
-      </c>
-      <c r="O10" s="18">
-        <v>0</v>
-      </c>
-      <c r="P10" s="18">
+      <c r="N10" s="50">
+        <v>0</v>
+      </c>
+      <c r="O10" s="58">
+        <v>0</v>
+      </c>
+      <c r="P10" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="18">
         <v>0</v>
@@ -2024,13 +2118,13 @@
       <c r="M11" s="18">
         <v>133</v>
       </c>
-      <c r="N11" s="17">
+      <c r="N11" s="51">
         <v>133</v>
       </c>
-      <c r="O11" s="18">
+      <c r="O11" s="58">
         <v>100</v>
       </c>
-      <c r="P11" s="18">
+      <c r="P11" s="45">
         <v>100</v>
       </c>
     </row>
@@ -2074,13 +2168,13 @@
       <c r="M12" s="22">
         <v>150</v>
       </c>
-      <c r="N12" s="22">
+      <c r="N12" s="49">
         <v>200</v>
       </c>
-      <c r="O12" s="22">
+      <c r="O12" s="57">
         <v>150</v>
       </c>
-      <c r="P12" s="22">
+      <c r="P12" s="44">
         <v>150</v>
       </c>
     </row>
@@ -2123,14 +2217,14 @@
       <c r="M13" s="22">
         <v>0</v>
       </c>
-      <c r="N13" s="22">
+      <c r="N13" s="49">
         <f>80+40+55</f>
         <v>175</v>
       </c>
-      <c r="O13" s="22">
-        <v>0</v>
-      </c>
-      <c r="P13" s="22">
+      <c r="O13" s="57">
+        <v>0</v>
+      </c>
+      <c r="P13" s="44">
         <v>0</v>
       </c>
     </row>
@@ -2172,13 +2266,13 @@
       <c r="M14" s="22">
         <v>0</v>
       </c>
-      <c r="N14" s="22">
+      <c r="N14" s="49">
         <v>58</v>
       </c>
-      <c r="O14" s="22">
-        <v>0</v>
-      </c>
-      <c r="P14" s="22">
+      <c r="O14" s="57">
+        <v>0</v>
+      </c>
+      <c r="P14" s="44">
         <v>0</v>
       </c>
     </row>
@@ -2220,13 +2314,13 @@
       <c r="M15" s="22">
         <v>0</v>
       </c>
-      <c r="N15" s="22">
-        <v>0</v>
-      </c>
-      <c r="O15" s="22">
-        <v>0</v>
-      </c>
-      <c r="P15" s="22">
+      <c r="N15" s="49">
+        <v>0</v>
+      </c>
+      <c r="O15" s="57">
+        <v>0</v>
+      </c>
+      <c r="P15" s="44">
         <v>50</v>
       </c>
     </row>
@@ -2268,13 +2362,13 @@
       <c r="M16" s="18">
         <v>40</v>
       </c>
-      <c r="N16" s="18">
+      <c r="N16" s="50">
         <v>40</v>
       </c>
-      <c r="O16" s="18">
+      <c r="O16" s="58">
         <v>40</v>
       </c>
-      <c r="P16" s="18">
+      <c r="P16" s="45">
         <v>40</v>
       </c>
     </row>
@@ -2316,13 +2410,13 @@
       <c r="M17" s="18">
         <v>0</v>
       </c>
-      <c r="N17" s="18">
-        <v>0</v>
-      </c>
-      <c r="O17" s="18">
-        <v>0</v>
-      </c>
-      <c r="P17" s="18">
+      <c r="N17" s="50">
+        <v>0</v>
+      </c>
+      <c r="O17" s="58">
+        <v>0</v>
+      </c>
+      <c r="P17" s="45">
         <v>0</v>
       </c>
     </row>
@@ -2365,13 +2459,13 @@
       <c r="M18" s="18">
         <v>0</v>
       </c>
-      <c r="N18" s="18">
+      <c r="N18" s="50">
         <v>105</v>
       </c>
-      <c r="O18" s="18">
-        <v>0</v>
-      </c>
-      <c r="P18" s="18">
+      <c r="O18" s="58">
+        <v>0</v>
+      </c>
+      <c r="P18" s="45">
         <v>0</v>
       </c>
     </row>
@@ -2413,20 +2507,20 @@
       <c r="M19" s="18">
         <v>0</v>
       </c>
-      <c r="N19" s="18">
-        <v>0</v>
-      </c>
-      <c r="O19" s="18">
-        <v>0</v>
-      </c>
-      <c r="P19" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="40"/>
+      <c r="N19" s="50">
+        <v>0</v>
+      </c>
+      <c r="O19" s="58">
+        <v>0</v>
+      </c>
+      <c r="P19" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="38"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B20" s="22">
         <f>17+10+13</f>
@@ -2465,13 +2559,13 @@
       <c r="M20" s="22">
         <v>44</v>
       </c>
-      <c r="N20" s="22">
+      <c r="N20" s="49">
         <v>45</v>
       </c>
-      <c r="O20" s="22">
-        <v>30</v>
-      </c>
-      <c r="P20" s="22">
+      <c r="O20" s="57">
+        <v>0</v>
+      </c>
+      <c r="P20" s="44">
         <v>30</v>
       </c>
     </row>
@@ -2516,13 +2610,13 @@
       <c r="M21" s="22">
         <v>0</v>
       </c>
-      <c r="N21" s="22">
-        <v>0</v>
-      </c>
-      <c r="O21" s="22">
-        <v>0</v>
-      </c>
-      <c r="P21" s="22">
+      <c r="N21" s="49">
+        <v>0</v>
+      </c>
+      <c r="O21" s="57">
+        <v>0</v>
+      </c>
+      <c r="P21" s="44">
         <v>0</v>
       </c>
       <c r="Q21" s="6"/>
@@ -2566,20 +2660,20 @@
       <c r="M22" s="22">
         <v>0</v>
       </c>
-      <c r="N22" s="37">
+      <c r="N22" s="52">
         <f>233+27</f>
         <v>260</v>
       </c>
-      <c r="O22" s="22">
-        <v>0</v>
-      </c>
-      <c r="P22" s="22">
+      <c r="O22" s="57">
+        <v>0</v>
+      </c>
+      <c r="P22" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -2595,13 +2689,13 @@
       <c r="M23" s="22">
         <v>27</v>
       </c>
-      <c r="N23" s="22">
+      <c r="N23" s="49">
         <v>27</v>
       </c>
-      <c r="O23" s="22">
-        <v>27</v>
-      </c>
-      <c r="P23" s="22">
+      <c r="O23" s="57">
+        <v>40</v>
+      </c>
+      <c r="P23" s="44">
         <v>27</v>
       </c>
     </row>
@@ -2647,13 +2741,13 @@
         <f>35</f>
         <v>35</v>
       </c>
-      <c r="N24" s="38">
+      <c r="N24" s="53">
         <v>480</v>
       </c>
-      <c r="O24" s="18">
-        <v>0</v>
-      </c>
-      <c r="P24" s="18">
+      <c r="O24" s="58">
+        <v>0</v>
+      </c>
+      <c r="P24" s="45">
         <v>0</v>
       </c>
     </row>
@@ -2706,15 +2800,15 @@
         <f>SUM(M2:M24)</f>
         <v>2458</v>
       </c>
-      <c r="N25" s="19">
+      <c r="N25" s="54">
         <f>SUM(N2:N24)</f>
         <v>4508</v>
       </c>
-      <c r="O25" s="19">
+      <c r="O25" s="59">
         <f>SUM(O2:O24)</f>
-        <v>2345</v>
-      </c>
-      <c r="P25" s="19">
+        <v>2398</v>
+      </c>
+      <c r="P25" s="46">
         <f>SUM(P2:P24)</f>
         <v>2395</v>
       </c>
@@ -2767,15 +2861,14 @@
         <f>(3543000+75000)/1500</f>
         <v>2412</v>
       </c>
-      <c r="N26" s="19">
+      <c r="N26" s="54">
         <f>(3597060+3197500)/1500</f>
         <v>4529.7066666666669</v>
       </c>
-      <c r="O26" s="19">
-        <f>(3543000+75000)/1500</f>
+      <c r="O26" s="59">
         <v>2412</v>
       </c>
-      <c r="P26" s="19">
+      <c r="P26" s="46">
         <f>(3543000)/1500</f>
         <v>2362</v>
       </c>
@@ -2829,15 +2922,15 @@
         <f>(M26-M25)</f>
         <v>-46</v>
       </c>
-      <c r="N27" s="19">
+      <c r="N27" s="54">
         <f>(N26-N25)</f>
         <v>21.706666666666933</v>
       </c>
-      <c r="O27" s="19">
+      <c r="O27" s="59">
         <f>(O26-O25)</f>
-        <v>67</v>
-      </c>
-      <c r="P27" s="19">
+        <v>14</v>
+      </c>
+      <c r="P27" s="46">
         <f>(P26-P25)</f>
         <v>-33</v>
       </c>
@@ -2888,15 +2981,15 @@
         <f>SUM(M3:M24)/M26</f>
         <v>0.39718076285240467</v>
       </c>
-      <c r="N28" s="35">
+      <c r="N28" s="55">
         <f>SUM(N3:N24)/N26</f>
         <v>0.46537229783827061</v>
       </c>
-      <c r="O28" s="35">
+      <c r="O28" s="60">
         <f>SUM(O3:O24)/O26</f>
-        <v>0.35033167495854062</v>
-      </c>
-      <c r="P28" s="35">
+        <v>0.37230514096185741</v>
+      </c>
+      <c r="P28" s="47">
         <f>SUM(P3:P24)/P26</f>
         <v>0.37891617273497036</v>
       </c>
@@ -2910,10 +3003,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView zoomScale="92" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2921,6 +3014,8 @@
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" style="6" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" customWidth="1"/>
     <col min="9" max="9" width="12.28515625" customWidth="1"/>
     <col min="10" max="10" width="11.7109375" customWidth="1"/>
@@ -2928,21 +3023,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="42">
+      <c r="A1" s="40">
         <v>2018</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="D1" s="42">
+      <c r="B1" s="40"/>
+      <c r="D1" s="40">
         <v>2019</v>
       </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="I1" s="42" t="s">
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="I1" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -3012,7 +3107,7 @@
       <c r="J3" s="9">
         <v>51250</v>
       </c>
-      <c r="K3" s="43">
+      <c r="K3" s="41">
         <f>SUM(N3:P9)</f>
         <v>25100</v>
       </c>
@@ -3056,7 +3151,7 @@
       <c r="J4" s="29">
         <v>15000</v>
       </c>
-      <c r="K4" s="43"/>
+      <c r="K4" s="41"/>
       <c r="L4" s="5"/>
       <c r="M4" s="27">
         <v>43739</v>
@@ -3097,7 +3192,7 @@
       <c r="J5" s="29">
         <v>15000</v>
       </c>
-      <c r="K5" s="43"/>
+      <c r="K5" s="41"/>
       <c r="L5" s="5"/>
       <c r="M5" s="27">
         <v>43770</v>
@@ -3138,7 +3233,7 @@
       <c r="J6" s="29">
         <v>15000</v>
       </c>
-      <c r="K6" s="43"/>
+      <c r="K6" s="41"/>
       <c r="L6" s="5"/>
       <c r="M6" s="27">
         <v>43800</v>
@@ -3178,7 +3273,7 @@
       <c r="J7" s="29">
         <v>15000</v>
       </c>
-      <c r="K7" s="43"/>
+      <c r="K7" s="41"/>
       <c r="L7" s="6"/>
       <c r="M7" s="27">
         <v>43831</v>
@@ -3219,7 +3314,7 @@
       <c r="J8" s="29">
         <v>15000</v>
       </c>
-      <c r="K8" s="43"/>
+      <c r="K8" s="41"/>
       <c r="L8" s="6"/>
       <c r="M8" s="27">
         <v>43862</v>
@@ -3260,7 +3355,7 @@
       <c r="J9" s="29">
         <v>15000</v>
       </c>
-      <c r="K9" s="43"/>
+      <c r="K9" s="41"/>
       <c r="M9" s="27">
         <v>43891</v>
       </c>
@@ -3300,7 +3395,7 @@
       <c r="J10" s="29">
         <v>15000</v>
       </c>
-      <c r="K10" s="43"/>
+      <c r="K10" s="41"/>
       <c r="M10" s="27">
         <v>43922</v>
       </c>
@@ -3341,7 +3436,7 @@
       <c r="J11" s="29">
         <v>35000</v>
       </c>
-      <c r="K11" s="43"/>
+      <c r="K11" s="41"/>
       <c r="M11" s="27">
         <v>43952</v>
       </c>
@@ -3522,7 +3617,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B19" s="6">
         <v>51250</v>
@@ -3546,7 +3641,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B20" s="6">
         <v>15000</v>
@@ -3576,12 +3671,12 @@
       <c r="N21" s="13"/>
       <c r="O21" s="15"/>
       <c r="P21" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B22" s="6">
         <f>2642</f>
@@ -3604,21 +3699,21 @@
       </c>
       <c r="C23" s="6"/>
       <c r="P23" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="41">
-        <v>3200000</v>
+        <v>53</v>
+      </c>
+      <c r="B24" s="39">
+        <v>2920000</v>
       </c>
       <c r="C24" s="6"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="B25" s="6">
         <v>2600</v>
@@ -3632,65 +3727,90 @@
       <c r="P25" s="15"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="6">
-        <v>0</v>
-      </c>
+      <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="39">
+        <v>75000</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27" s="41">
+        <v>54</v>
+      </c>
+      <c r="B27" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="39">
         <v>300000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="6">
-        <v>7750</v>
-      </c>
-      <c r="C28" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" s="41">
+        <v>52</v>
+      </c>
+      <c r="B29" s="6">
+        <v>7750</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="39">
         <v>1000000</v>
       </c>
-      <c r="C29" s="9">
-        <f>B30-(B20+B19)</f>
-        <v>25120.118811881184</v>
-      </c>
-      <c r="D29" s="9">
-        <f>K3-C29</f>
-        <v>-20.118811881184229</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="9">
-        <f>B19+B20+B21+B25+B28+B22+(B23+B24+B26+B29+B27)/1515</f>
-        <v>91370.118811881184</v>
-      </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
+      <c r="C30" s="9">
+        <f>B32-(B20+B19)</f>
+        <v>25100.316831683172</v>
+      </c>
+      <c r="D30" s="9">
+        <f>C30-K3</f>
+        <v>0.3168316831724951</v>
+      </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D31" s="39"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="6"/>
+      <c r="A31" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="39">
+        <v>175000</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B32" s="9">
+        <f>B19+B20+B21+B25+B29+B22+(B23+B24+B27+B30+B26+B28+B31)/1515</f>
+        <v>91350.316831683172</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D33" s="37"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3723,22 +3843,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="42">
+      <c r="A1" s="40">
         <v>2018</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="D1" s="42" t="s">
+      <c r="B1" s="40"/>
+      <c r="D1" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="I1" s="42" t="s">
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="I1" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4481,28 +4601,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="44">
+      <c r="A1" s="42">
         <v>2018</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="D1" s="44">
+      <c r="B1" s="42"/>
+      <c r="D1" s="42">
         <v>2019</v>
       </c>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="I1" s="44">
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="I1" s="42">
         <v>2020</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="N1" s="44">
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="N1" s="42">
         <v>2021</v>
       </c>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">

--- a/My_Budget (1).xlsx
+++ b/My_Budget (1).xlsx
@@ -681,7 +681,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="74">
   <si>
     <t>April</t>
   </si>
@@ -1173,7 +1173,7 @@
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1248,15 +1248,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1310,6 +1301,18 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="7" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1597,7 +1600,7 @@
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1645,13 +1648,13 @@
       <c r="M1" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="N1" s="48" t="s">
+      <c r="N1" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="O1" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" s="43" t="s">
+      <c r="O1" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="40" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1695,13 +1698,13 @@
       <c r="M2" s="22">
         <v>1500</v>
       </c>
-      <c r="N2" s="49">
+      <c r="N2" s="46">
         <v>2400</v>
       </c>
-      <c r="O2" s="57">
-        <v>1500</v>
-      </c>
-      <c r="P2" s="44">
+      <c r="O2" s="54">
+        <v>1600</v>
+      </c>
+      <c r="P2" s="41">
         <v>1500</v>
       </c>
     </row>
@@ -1743,13 +1746,13 @@
       <c r="M3" s="18">
         <v>22</v>
       </c>
-      <c r="N3" s="50">
+      <c r="N3" s="47">
         <v>44</v>
       </c>
-      <c r="O3" s="58">
+      <c r="O3" s="55">
         <v>22</v>
       </c>
-      <c r="P3" s="45">
+      <c r="P3" s="42">
         <v>22</v>
       </c>
     </row>
@@ -1792,13 +1795,13 @@
       <c r="M4" s="18">
         <v>25</v>
       </c>
-      <c r="N4" s="50">
+      <c r="N4" s="47">
         <v>55</v>
       </c>
-      <c r="O4" s="58">
-        <v>50</v>
-      </c>
-      <c r="P4" s="45">
+      <c r="O4" s="55">
+        <v>17</v>
+      </c>
+      <c r="P4" s="42">
         <v>50</v>
       </c>
     </row>
@@ -1824,13 +1827,13 @@
       <c r="M5" s="18">
         <v>66</v>
       </c>
-      <c r="N5" s="50">
+      <c r="N5" s="47">
         <v>66</v>
       </c>
-      <c r="O5" s="58">
-        <v>66</v>
-      </c>
-      <c r="P5" s="45">
+      <c r="O5" s="55">
+        <v>0</v>
+      </c>
+      <c r="P5" s="42">
         <v>66</v>
       </c>
     </row>
@@ -1874,13 +1877,13 @@
       <c r="M6" s="18">
         <v>300</v>
       </c>
-      <c r="N6" s="50">
+      <c r="N6" s="47">
         <v>310</v>
       </c>
-      <c r="O6" s="58">
+      <c r="O6" s="55">
         <v>320</v>
       </c>
-      <c r="P6" s="45">
+      <c r="P6" s="42">
         <v>250</v>
       </c>
     </row>
@@ -1924,13 +1927,13 @@
       <c r="M7" s="18">
         <v>40</v>
       </c>
-      <c r="N7" s="50">
+      <c r="N7" s="47">
         <v>40</v>
       </c>
-      <c r="O7" s="58">
-        <v>40</v>
-      </c>
-      <c r="P7" s="45">
+      <c r="O7" s="55">
+        <v>80</v>
+      </c>
+      <c r="P7" s="42">
         <v>40</v>
       </c>
     </row>
@@ -1972,13 +1975,13 @@
       <c r="M8" s="18">
         <v>66</v>
       </c>
-      <c r="N8" s="50">
+      <c r="N8" s="47">
         <v>60</v>
       </c>
-      <c r="O8" s="58">
+      <c r="O8" s="55">
         <v>60</v>
       </c>
-      <c r="P8" s="45">
+      <c r="P8" s="42">
         <v>60</v>
       </c>
     </row>
@@ -2021,13 +2024,13 @@
       <c r="M9" s="18">
         <v>10</v>
       </c>
-      <c r="N9" s="50">
-        <v>10</v>
-      </c>
-      <c r="O9" s="58">
-        <v>10</v>
-      </c>
-      <c r="P9" s="45">
+      <c r="N9" s="47">
+        <v>0</v>
+      </c>
+      <c r="O9" s="55">
+        <v>0</v>
+      </c>
+      <c r="P9" s="42">
         <v>10</v>
       </c>
     </row>
@@ -2070,13 +2073,13 @@
       <c r="M10" s="18">
         <v>0</v>
       </c>
-      <c r="N10" s="50">
-        <v>0</v>
-      </c>
-      <c r="O10" s="58">
-        <v>0</v>
-      </c>
-      <c r="P10" s="45">
+      <c r="N10" s="47">
+        <v>0</v>
+      </c>
+      <c r="O10" s="55">
+        <v>0</v>
+      </c>
+      <c r="P10" s="42">
         <v>0</v>
       </c>
     </row>
@@ -2118,13 +2121,13 @@
       <c r="M11" s="18">
         <v>133</v>
       </c>
-      <c r="N11" s="51">
+      <c r="N11" s="48">
         <v>133</v>
       </c>
-      <c r="O11" s="58">
+      <c r="O11" s="55">
         <v>100</v>
       </c>
-      <c r="P11" s="45">
+      <c r="P11" s="42">
         <v>100</v>
       </c>
     </row>
@@ -2168,13 +2171,13 @@
       <c r="M12" s="22">
         <v>150</v>
       </c>
-      <c r="N12" s="49">
+      <c r="N12" s="46">
         <v>200</v>
       </c>
-      <c r="O12" s="57">
-        <v>150</v>
-      </c>
-      <c r="P12" s="44">
+      <c r="O12" s="54">
+        <v>100</v>
+      </c>
+      <c r="P12" s="41">
         <v>150</v>
       </c>
     </row>
@@ -2217,14 +2220,14 @@
       <c r="M13" s="22">
         <v>0</v>
       </c>
-      <c r="N13" s="49">
+      <c r="N13" s="46">
         <f>80+40+55</f>
         <v>175</v>
       </c>
-      <c r="O13" s="57">
-        <v>0</v>
-      </c>
-      <c r="P13" s="44">
+      <c r="O13" s="54">
+        <v>0</v>
+      </c>
+      <c r="P13" s="41">
         <v>0</v>
       </c>
     </row>
@@ -2266,13 +2269,13 @@
       <c r="M14" s="22">
         <v>0</v>
       </c>
-      <c r="N14" s="49">
+      <c r="N14" s="46">
         <v>58</v>
       </c>
-      <c r="O14" s="57">
-        <v>0</v>
-      </c>
-      <c r="P14" s="44">
+      <c r="O14" s="54">
+        <v>0</v>
+      </c>
+      <c r="P14" s="41">
         <v>0</v>
       </c>
     </row>
@@ -2314,13 +2317,13 @@
       <c r="M15" s="22">
         <v>0</v>
       </c>
-      <c r="N15" s="49">
-        <v>0</v>
-      </c>
-      <c r="O15" s="57">
-        <v>0</v>
-      </c>
-      <c r="P15" s="44">
+      <c r="N15" s="46">
+        <v>0</v>
+      </c>
+      <c r="O15" s="54">
+        <v>0</v>
+      </c>
+      <c r="P15" s="41">
         <v>50</v>
       </c>
     </row>
@@ -2362,13 +2365,13 @@
       <c r="M16" s="18">
         <v>40</v>
       </c>
-      <c r="N16" s="50">
+      <c r="N16" s="47">
         <v>40</v>
       </c>
-      <c r="O16" s="58">
-        <v>40</v>
-      </c>
-      <c r="P16" s="45">
+      <c r="O16" s="55">
+        <v>0</v>
+      </c>
+      <c r="P16" s="42">
         <v>40</v>
       </c>
     </row>
@@ -2410,13 +2413,13 @@
       <c r="M17" s="18">
         <v>0</v>
       </c>
-      <c r="N17" s="50">
-        <v>0</v>
-      </c>
-      <c r="O17" s="58">
-        <v>0</v>
-      </c>
-      <c r="P17" s="45">
+      <c r="N17" s="47">
+        <v>0</v>
+      </c>
+      <c r="O17" s="55">
+        <v>30</v>
+      </c>
+      <c r="P17" s="42">
         <v>0</v>
       </c>
     </row>
@@ -2459,13 +2462,13 @@
       <c r="M18" s="18">
         <v>0</v>
       </c>
-      <c r="N18" s="50">
+      <c r="N18" s="47">
         <v>105</v>
       </c>
-      <c r="O18" s="58">
-        <v>0</v>
-      </c>
-      <c r="P18" s="45">
+      <c r="O18" s="55">
+        <v>15</v>
+      </c>
+      <c r="P18" s="42">
         <v>0</v>
       </c>
     </row>
@@ -2507,13 +2510,13 @@
       <c r="M19" s="18">
         <v>0</v>
       </c>
-      <c r="N19" s="50">
-        <v>0</v>
-      </c>
-      <c r="O19" s="58">
-        <v>0</v>
-      </c>
-      <c r="P19" s="45">
+      <c r="N19" s="47">
+        <v>0</v>
+      </c>
+      <c r="O19" s="55">
+        <v>0</v>
+      </c>
+      <c r="P19" s="42">
         <v>0</v>
       </c>
       <c r="Q19" s="38"/>
@@ -2559,13 +2562,13 @@
       <c r="M20" s="22">
         <v>44</v>
       </c>
-      <c r="N20" s="49">
+      <c r="N20" s="46">
         <v>45</v>
       </c>
-      <c r="O20" s="57">
-        <v>0</v>
-      </c>
-      <c r="P20" s="44">
+      <c r="O20" s="54">
+        <v>0</v>
+      </c>
+      <c r="P20" s="41">
         <v>30</v>
       </c>
     </row>
@@ -2610,13 +2613,13 @@
       <c r="M21" s="22">
         <v>0</v>
       </c>
-      <c r="N21" s="49">
-        <v>0</v>
-      </c>
-      <c r="O21" s="57">
-        <v>0</v>
-      </c>
-      <c r="P21" s="44">
+      <c r="N21" s="46">
+        <v>0</v>
+      </c>
+      <c r="O21" s="54">
+        <v>0</v>
+      </c>
+      <c r="P21" s="41">
         <v>0</v>
       </c>
       <c r="Q21" s="6"/>
@@ -2660,14 +2663,14 @@
       <c r="M22" s="22">
         <v>0</v>
       </c>
-      <c r="N22" s="52">
+      <c r="N22" s="49">
         <f>233+27</f>
         <v>260</v>
       </c>
-      <c r="O22" s="57">
-        <v>0</v>
-      </c>
-      <c r="P22" s="44">
+      <c r="O22" s="54">
+        <v>0</v>
+      </c>
+      <c r="P22" s="41">
         <v>0</v>
       </c>
     </row>
@@ -2689,14 +2692,14 @@
       <c r="M23" s="22">
         <v>27</v>
       </c>
-      <c r="N23" s="49">
+      <c r="N23" s="46">
         <v>27</v>
       </c>
-      <c r="O23" s="57">
+      <c r="O23" s="54">
         <v>40</v>
       </c>
-      <c r="P23" s="44">
-        <v>27</v>
+      <c r="P23" s="41">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -2741,13 +2744,13 @@
         <f>35</f>
         <v>35</v>
       </c>
-      <c r="N24" s="53">
+      <c r="N24" s="50">
         <v>480</v>
       </c>
-      <c r="O24" s="58">
-        <v>0</v>
-      </c>
-      <c r="P24" s="45">
+      <c r="O24" s="55">
+        <v>0</v>
+      </c>
+      <c r="P24" s="42">
         <v>0</v>
       </c>
     </row>
@@ -2800,17 +2803,17 @@
         <f>SUM(M2:M24)</f>
         <v>2458</v>
       </c>
-      <c r="N25" s="54">
+      <c r="N25" s="51">
         <f>SUM(N2:N24)</f>
-        <v>4508</v>
-      </c>
-      <c r="O25" s="59">
+        <v>4498</v>
+      </c>
+      <c r="O25" s="56">
         <f>SUM(O2:O24)</f>
-        <v>2398</v>
-      </c>
-      <c r="P25" s="46">
+        <v>2384</v>
+      </c>
+      <c r="P25" s="43">
         <f>SUM(P2:P24)</f>
-        <v>2395</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -2861,14 +2864,15 @@
         <f>(3543000+75000)/1500</f>
         <v>2412</v>
       </c>
-      <c r="N26" s="54">
+      <c r="N26" s="51">
         <f>(3597060+3197500)/1500</f>
         <v>4529.7066666666669</v>
       </c>
-      <c r="O26" s="59">
-        <v>2412</v>
-      </c>
-      <c r="P26" s="46">
+      <c r="O26" s="56">
+        <f>(3523353+12000)/1500</f>
+        <v>2356.902</v>
+      </c>
+      <c r="P26" s="43">
         <f>(3543000)/1500</f>
         <v>2362</v>
       </c>
@@ -2922,17 +2926,17 @@
         <f>(M26-M25)</f>
         <v>-46</v>
       </c>
-      <c r="N27" s="54">
+      <c r="N27" s="51">
         <f>(N26-N25)</f>
-        <v>21.706666666666933</v>
-      </c>
-      <c r="O27" s="59">
+        <v>31.706666666666933</v>
+      </c>
+      <c r="O27" s="56">
         <f>(O26-O25)</f>
-        <v>14</v>
-      </c>
-      <c r="P27" s="46">
+        <v>-27.097999999999956</v>
+      </c>
+      <c r="P27" s="43">
         <f>(P26-P25)</f>
-        <v>-33</v>
+        <v>-46</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -2981,17 +2985,17 @@
         <f>SUM(M3:M24)/M26</f>
         <v>0.39718076285240467</v>
       </c>
-      <c r="N28" s="55">
+      <c r="N28" s="52">
         <f>SUM(N3:N24)/N26</f>
-        <v>0.46537229783827061</v>
-      </c>
-      <c r="O28" s="60">
+        <v>0.46316464936655205</v>
+      </c>
+      <c r="O28" s="57">
         <f>SUM(O3:O24)/O26</f>
-        <v>0.37230514096185741</v>
-      </c>
-      <c r="P28" s="47">
+        <v>0.33264005037120764</v>
+      </c>
+      <c r="P28" s="44">
         <f>SUM(P3:P24)/P26</f>
-        <v>0.37891617273497036</v>
+        <v>0.38441998306519898</v>
       </c>
     </row>
   </sheetData>
@@ -3003,10 +3007,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3023,21 +3027,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="40">
+      <c r="A1" s="58">
         <v>2018</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="D1" s="40">
+      <c r="B1" s="58"/>
+      <c r="D1" s="58">
         <v>2019</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="I1" s="40" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="I1" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -3107,9 +3115,9 @@
       <c r="J3" s="9">
         <v>51250</v>
       </c>
-      <c r="K3" s="41">
-        <f>SUM(N3:P9)</f>
-        <v>25100</v>
+      <c r="K3" s="59">
+        <f>SUM(N3:P10)</f>
+        <v>27800</v>
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="27">
@@ -3151,7 +3159,7 @@
       <c r="J4" s="29">
         <v>15000</v>
       </c>
-      <c r="K4" s="41"/>
+      <c r="K4" s="59"/>
       <c r="L4" s="5"/>
       <c r="M4" s="27">
         <v>43739</v>
@@ -3192,7 +3200,7 @@
       <c r="J5" s="29">
         <v>15000</v>
       </c>
-      <c r="K5" s="41"/>
+      <c r="K5" s="59"/>
       <c r="L5" s="5"/>
       <c r="M5" s="27">
         <v>43770</v>
@@ -3233,7 +3241,7 @@
       <c r="J6" s="29">
         <v>15000</v>
       </c>
-      <c r="K6" s="41"/>
+      <c r="K6" s="59"/>
       <c r="L6" s="5"/>
       <c r="M6" s="27">
         <v>43800</v>
@@ -3273,7 +3281,7 @@
       <c r="J7" s="29">
         <v>15000</v>
       </c>
-      <c r="K7" s="41"/>
+      <c r="K7" s="59"/>
       <c r="L7" s="6"/>
       <c r="M7" s="27">
         <v>43831</v>
@@ -3314,7 +3322,7 @@
       <c r="J8" s="29">
         <v>15000</v>
       </c>
-      <c r="K8" s="41"/>
+      <c r="K8" s="59"/>
       <c r="L8" s="6"/>
       <c r="M8" s="27">
         <v>43862</v>
@@ -3355,7 +3363,7 @@
       <c r="J9" s="29">
         <v>15000</v>
       </c>
-      <c r="K9" s="41"/>
+      <c r="K9" s="59"/>
       <c r="M9" s="27">
         <v>43891</v>
       </c>
@@ -3395,18 +3403,18 @@
       <c r="J10" s="29">
         <v>15000</v>
       </c>
-      <c r="K10" s="41"/>
+      <c r="K10" s="59"/>
       <c r="M10" s="27">
         <v>43922</v>
       </c>
-      <c r="N10" s="25">
-        <v>1500</v>
-      </c>
-      <c r="O10" s="6">
-        <v>400</v>
-      </c>
-      <c r="P10" s="25">
-        <v>800</v>
+      <c r="N10" s="9">
+        <v>1600</v>
+      </c>
+      <c r="O10" s="9">
+        <v>400</v>
+      </c>
+      <c r="P10" s="9">
+        <v>700</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -3436,7 +3444,7 @@
       <c r="J11" s="29">
         <v>35000</v>
       </c>
-      <c r="K11" s="41"/>
+      <c r="K11" s="59"/>
       <c r="M11" s="27">
         <v>43952</v>
       </c>
@@ -3628,7 +3636,7 @@
       <c r="G19" s="6"/>
       <c r="N19" s="10">
         <f>SUM(N3:N18)</f>
-        <v>32505</v>
+        <v>32605</v>
       </c>
       <c r="O19" s="10">
         <f>SUM(O3:O18)</f>
@@ -3636,7 +3644,7 @@
       </c>
       <c r="P19" s="10">
         <f>SUM(P3:P18)</f>
-        <v>14995</v>
+        <v>14895</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -3679,8 +3687,8 @@
         <v>65</v>
       </c>
       <c r="B22" s="6">
-        <f>2642</f>
-        <v>2642</v>
+        <f>2640</f>
+        <v>2640</v>
       </c>
       <c r="C22" s="6"/>
       <c r="E22" s="6"/>
@@ -3695,7 +3703,7 @@
         <v>51</v>
       </c>
       <c r="B23" s="6">
-        <v>27000</v>
+        <v>26000</v>
       </c>
       <c r="C23" s="6"/>
       <c r="P23" s="10" t="s">
@@ -3707,7 +3715,7 @@
         <v>53</v>
       </c>
       <c r="B24" s="39">
-        <v>2920000</v>
+        <v>5868000</v>
       </c>
       <c r="C24" s="6"/>
     </row>
@@ -3731,7 +3739,7 @@
         <v>72</v>
       </c>
       <c r="B26" s="39">
-        <v>75000</v>
+        <v>540000</v>
       </c>
       <c r="C26" s="6"/>
       <c r="E26" s="6"/>
@@ -3762,7 +3770,8 @@
         <v>52</v>
       </c>
       <c r="B29" s="6">
-        <v>7750</v>
+        <f>7721+700</f>
+        <v>8421</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>69</v>
@@ -3776,48 +3785,39 @@
         <v>66</v>
       </c>
       <c r="B30" s="39">
-        <v>1000000</v>
+        <v>850000</v>
       </c>
       <c r="C30" s="9">
-        <f>B32-(B20+B19)</f>
-        <v>25100.316831683172</v>
+        <f>B31-(B20+B19)</f>
+        <v>27806.940594059401</v>
       </c>
       <c r="D30" s="9">
         <f>C30-K3</f>
-        <v>0.3168316831724951</v>
+        <v>6.9405940594006097</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="39">
-        <v>175000</v>
-      </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
+      <c r="B31" s="9">
+        <f>B19+B20+B21+B25+B29+B22+(B23+B24+B27+B30+B26+B28)/1515</f>
+        <v>94056.940594059401</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="9">
-        <f>B19+B20+B21+B25+B29+B22+(B23+B24+B27+B30+B26+B28+B31)/1515</f>
-        <v>91350.316831683172</v>
-      </c>
-      <c r="E32" s="9"/>
+      <c r="D32" s="37"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
-    </row>
-    <row r="33" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D33" s="37"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="6"/>
+      <c r="H32" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="K3:K11"/>
+    <mergeCell ref="M1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3843,22 +3843,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="40">
+      <c r="A1" s="58">
         <v>2018</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="D1" s="40" t="s">
+      <c r="B1" s="58"/>
+      <c r="D1" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="I1" s="40" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="I1" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4601,28 +4601,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="42">
+      <c r="A1" s="61">
         <v>2018</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="D1" s="42">
+      <c r="B1" s="61"/>
+      <c r="D1" s="61">
         <v>2019</v>
       </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="I1" s="42">
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="I1" s="61">
         <v>2020</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="N1" s="42">
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="N1" s="61">
         <v>2021</v>
       </c>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
